--- a/data/landings/cdfw/public/website/by_port/species_key/CA_species_key_v3_group.xlsx
+++ b/data/landings/cdfw/public/website/by_port/species_key/CA_species_key_v3_group.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/species_key/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/website/by_port/species_key/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AC7B43-D298-C345-9052-B2157DD9DA53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522BCA95-D2D3-0F45-ABB7-BA72FEA300E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18940" yWindow="7020" windowWidth="42280" windowHeight="26020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8920" yWindow="960" windowWidth="42280" windowHeight="26020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CA_species_key_v2_taxa" sheetId="1" r:id="rId1"/>
@@ -5319,8 +5319,8 @@
   <dimension ref="A1:M367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L179" sqref="L179"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C375" sqref="C375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9863,7 +9863,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1119</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1116</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>618</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>543</v>
       </c>
@@ -19951,10 +19951,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M367" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
+    <filterColumn colId="0">
       <filters>
-        <filter val="Staghorn sculpin"/>
-        <filter val="Yellowchin sculpin"/>
+        <filter val="Rockfish, copper"/>
+        <filter val="Rockfish, copper (whitebelly)"/>
       </filters>
     </filterColumn>
   </autoFilter>
